--- a/주식/주식 - 따블맨.xlsx
+++ b/주식/주식 - 따블맨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="109" yWindow="68" windowWidth="25961" windowHeight="11058" activeTab="2"/>
+    <workbookView xWindow="109" yWindow="68" windowWidth="25961" windowHeight="11058" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="총쏘는 모양" sheetId="1" r:id="rId1"/>
@@ -39,18 +39,6 @@
     <t>총쏘는 모양 매수&amp;매도</t>
   </si>
   <si>
-    <t>2번과 4번처럼 음봉이 고점이 양봉보다 높으면 하락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜? 음봉의 좌측면이 양봉에 붙어 있어야 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5번도 양봉보다 높지만 뚜껑이라 하지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4:41 / 11:12</t>
   </si>
   <si>
@@ -58,14 +46,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>17:48 / 51:15</t>
+  </si>
+  <si>
+    <t>구독자 요청종목(2)_3월25일</t>
+  </si>
+  <si>
+    <t>1:10 / 11:05</t>
+  </si>
+  <si>
+    <t>실패없는 가운데자리(1)_#29</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UsuLqIMH0qY</t>
+  </si>
+  <si>
     <t>매수는 도찌의 고점 돌파시에 한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:48 / 51:15</t>
-  </si>
-  <si>
-    <t>구독자 요청종목(2)_3월25일</t>
   </si>
   <si>
     <t>도찌 1사분면에떠서 도찌 고점을 돌파시 매수</t>
@@ -75,13 +72,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">4사분면에 음봉으로 오면 </t>
+      <t>손절은</t>
     </r>
     <r>
       <rPr>
@@ -92,7 +89,29 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>양봉의 종가에서 손절(</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4사분면에서 음봉으로 떨어지는데 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>양봉의 종가 또는 고가에서 손절(</t>
     </r>
     <r>
       <rPr>
@@ -103,7 +122,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>시가나 고가 아니다</t>
+      <t>시가가 아니다</t>
     </r>
     <r>
       <rPr>
@@ -119,13 +138,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:10 / 11:05</t>
-  </si>
-  <si>
-    <t>실패없는 가운데자리(1)_#29</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UsuLqIMH0qY</t>
+    <t>2번과 4번처럼 음봉의 고점이 양봉보다 높으면 하락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번도 양봉보다 높지만 뚜껑이라 하지 않는다. 도찌에 가깝다.(총쏘는 모양 참조)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜? 음봉의 좌측면이 양봉면(녹색선)에 붙어 있어야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -262,15 +284,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>629729</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>94891</xdr:rowOff>
+      <xdr:colOff>612476</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>77638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>569832</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>181475</xdr:rowOff>
+      <xdr:colOff>552579</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>164222</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -287,7 +309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8911087" y="2674189"/>
+          <a:off x="8893834" y="2855344"/>
           <a:ext cx="8911575" cy="5840403"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -673,15 +695,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -689,84 +711,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q6" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
         <v>1</v>
       </c>
-      <c r="T6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q8" t="s">
+      <c r="S6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q9" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q11" s="2" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P12" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="O4:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O12" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -777,11 +757,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="O4:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H5:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -789,25 +812,25 @@
   <sheetData>
     <row r="5" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="8:13" x14ac:dyDescent="0.3">
       <c r="M27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/주식/주식 - 따블맨.xlsx
+++ b/주식/주식 - 따블맨.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="109" yWindow="68" windowWidth="25961" windowHeight="11058" activeTab="1"/>
+    <workbookView xWindow="109" yWindow="68" windowWidth="25961" windowHeight="11058" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="총쏘는 모양" sheetId="1" r:id="rId1"/>
     <sheet name="뚜껑" sheetId="2" r:id="rId2"/>
     <sheet name="가운데자리" sheetId="3" r:id="rId3"/>
+    <sheet name="끝자리" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="각도" sheetId="6" r:id="rId6"/>
+    <sheet name="일목균형표" sheetId="7" r:id="rId7"/>
+    <sheet name="언제 사나" sheetId="8" r:id="rId8"/>
+    <sheet name="엘리어트파동" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>3)번은 총쏘는 모양이 아니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,6 +153,95 @@
   </si>
   <si>
     <t>왜? 음봉의 좌측면이 양봉면(녹색선)에 붙어 있어야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)4)는 나와야 되는 모양.  5)는 나와야 되는 모양이 아니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ewnD4yROv10</t>
+  </si>
+  <si>
+    <t>월봉으로 뚜껑을 따고, 거래량이 이빠인것이 특징</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청색2개가 a파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양봉2개가 b파 : 이때 나와야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3봉 - 주봉이나 월봉에서 본다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍바닥은 일봉 주봉 월봉 똑같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵빵빵 3번쨰 빵에서 쌍바닥 언덕 돌파후 눌림후 상승중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>very good</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수O인 자리에서 매수가 됬을때…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양양양….으로 5일선 타고 가면 존버…색바뀌면 판다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥이나 중간이면 그나마 다행이나 꼭대기에서 느슨하게 가면 반드시 나와야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AzaDpSFJp8w&amp;list=PL8KTpDGWQFUwscKZqaDP_g0gUHPe1NUSn&amp;index=146</t>
+  </si>
+  <si>
+    <t>디테일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내려오는 각도보다 올라가는 각도가 가팔라야 좋다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜? 시초가가 마이너스이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전환선과 기준선이 매매시 홀딩의 기준을 주는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캔들은 하락하지만 전환선이 기준선위에 주-욱 계속 있을떄 홀딩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*전환선이 아래에 있다가 기준선을 크로스 하는 경우에 산다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그이후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>**도찌는 빨간색 파란색 상관없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w4nPeYwZDI0&amp;list=PL8KTpDGWQFUwscKZqaDP_g0gUHPe1NUSn&amp;index=85</t>
+  </si>
+  <si>
+    <t>언제 사야 하는가?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +320,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -285,13 +383,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>612476</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>77638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>552579</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>164222</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -362,6 +460,460 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60385</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>121264</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8341743" y="3950898"/>
+          <a:ext cx="9032351" cy="5702373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43132</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>146927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43132" y="5779698"/>
+          <a:ext cx="9955428" cy="5081237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>77638</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>129396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25879</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4908430" y="9256143"/>
+          <a:ext cx="1328468" cy="1285336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>일단 나오고</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>abc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>모양이 나오기 전까지 접근 금지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586596</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>129396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>422694</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>103517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6797615" y="9454551"/>
+          <a:ext cx="2596551" cy="1164566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>월봉 뚜껑을 따면 손절을 해서라도 나와야 한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cf) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>양봉 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>도찌  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>--&gt;  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>양봉 종가깨면 손절해서라도 나온다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>491706</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>189781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>439947</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8082951" y="7729268"/>
+          <a:ext cx="1328468" cy="1285336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>일봉이나</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>주봉에서도</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>나오는게 맞다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552091</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7617125" y="6107501"/>
+          <a:ext cx="1216324" cy="1354348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>주봉상 뚜껑을 땃다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>대형주는 특히 에누리 없이 나와야 한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -397,6 +949,449 @@
         <a:xfrm>
           <a:off x="0" y="396815"/>
           <a:ext cx="8247305" cy="3778577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>43131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>613038</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="241539"/>
+          <a:ext cx="10274623" cy="5797268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43626</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>190096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6349042"/>
+          <a:ext cx="9015098" cy="5745507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293768</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="198408"/>
+          <a:ext cx="8575126" cy="5495327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17253</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371333</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17253" y="224287"/>
+          <a:ext cx="7255212" cy="3700935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>534837</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259193</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="534837" y="3200400"/>
+          <a:ext cx="7315601" cy="4339324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>94891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>440413</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9213012" y="94891"/>
+          <a:ext cx="8480231" cy="3890726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336432</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>26317</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>8853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8617790" y="5400136"/>
+          <a:ext cx="7971244" cy="4132279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638355</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388288</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7539487" y="1854680"/>
+          <a:ext cx="1820273" cy="1225018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>319177</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>43533</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="319177" y="698740"/>
+          <a:ext cx="7315601" cy="2389648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>630292</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3968151"/>
+          <a:ext cx="10291877" cy="5685119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>578531</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10240116" cy="5685119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -695,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -716,6 +1711,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P5" t="s">
         <v>0</v>
@@ -729,23 +1729,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="P8" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="P9" s="1" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="P10" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="P12" s="2" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -759,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="O4:O12"/>
+  <dimension ref="O4:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -790,6 +1795,16 @@
     <row r="12" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O12" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O16" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -838,4 +1853,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>